--- a/medicine/Psychotrope/Thomas-Michel_Lynch/Thomas-Michel_Lynch.xlsx
+++ b/medicine/Psychotrope/Thomas-Michel_Lynch/Thomas-Michel_Lynch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas-Michel Lynch, appelé aussi Michel Lynch ou le chevalier de Lynch, né à Bordeaux le 6 mai 1754, mort à Bordeaux le 13 août 1840, est un homme politique français, député royaliste au Conseil des Cinq-Cents sous le Directoire. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille catholique anglaise de petite noblesse, anciennement établie en Irlande puis réfugiée en Bordelais, Thomas-Michel Lynch est le fils de Thomas-Michel Lynch, écuyer, seigneur de Formingley, et de Pétronille Drouillard, fille du trésorier Pierre Drouillard. Il est le frère du futur maire de Bordeaux Jean-Baptiste Lynch et d'Elise Lynch qui épouse François-Patrice Mitchell, et le cousin de Thomas Lynch Jr et d'Isidore de Lynch. 
-Thomas-Michel Lynch entre aux chevau-légers de la maison du roi[1],[2]. Lorsque ce corps est licencié en 1787, Lynch se retire sur ses terres pour les faire valoir et s'occupe de belles-lettres[1],[2]. Il gère les domaines viticoles que son frère et lui ont hérités de leurs parents et qui sont actuellement connus sous les noms de Château Dauzac, Château Lynch-Moussas et de Château Lynch-Bages[3].
-Sous le nom de Michel, chevalier de Lynch, il participe aux assemblées de la noblesse de 1789[4].
-Le 23 germinal an V, Thomas-Michel Lynch est élu député au Conseil des Cinq-Cents par les électeurs du département de la Gironde, avec 79,6 % des suffrages. Royaliste, il vote toujours avec ce parti mais sans prendre part aux débats. Il est exclu du Conseil après le coup d'État du 18 fructidor an V des directeurs contre la majorité royaliste des conseils[1],[2].
-Il s'exile alors en Angleterre et revient en France sous le Consulat. Il devient conseiller général de la Gironde, et meurt à 86 ans[1].
+Thomas-Michel Lynch entre aux chevau-légers de la maison du roi,. Lorsque ce corps est licencié en 1787, Lynch se retire sur ses terres pour les faire valoir et s'occupe de belles-lettres,. Il gère les domaines viticoles que son frère et lui ont hérités de leurs parents et qui sont actuellement connus sous les noms de Château Dauzac, Château Lynch-Moussas et de Château Lynch-Bages.
+Sous le nom de Michel, chevalier de Lynch, il participe aux assemblées de la noblesse de 1789.
+Le 23 germinal an V, Thomas-Michel Lynch est élu député au Conseil des Cinq-Cents par les électeurs du département de la Gironde, avec 79,6 % des suffrages. Royaliste, il vote toujours avec ce parti mais sans prendre part aux débats. Il est exclu du Conseil après le coup d'État du 18 fructidor an V des directeurs contre la majorité royaliste des conseils,.
+Il s'exile alors en Angleterre et revient en France sous le Consulat. Il devient conseiller général de la Gironde, et meurt à 86 ans.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Sources bibliographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Thomas-Michel Lynch », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition] [texte sur Sycomore].
 « Lynch (Thomas-Michel, chevalier de) », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition], tome 28, p. 558, à la suite de l'article sur son frère Jean-Baptiste [lire en ligne].</t>
